--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1748231.528373346</v>
+        <v>-1750807.849854589</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673438</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>110.0923443600204</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>289.0908630279722</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -744,7 +744,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804553993</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>116.7538072563905</v>
       </c>
       <c r="I4" t="n">
-        <v>18.87480941467736</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>98.83782421659632</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>131.4265182642394</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>231.4760253798835</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>98.86905627466754</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1057,16 +1057,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>283.9184971250925</v>
+        <v>216.5480511558164</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>1.190421113301465</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,7 +1148,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>351.8215572157462</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>47.75455346623342</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>99.03936336818005</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1537,7 +1537,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>9.570729811036209</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>175.5375697851124</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,13 +1774,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>100.3801551430683</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>232.5045586805106</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444144</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>41.33703994143001</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>2.26848612580527</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>42.53134576113764</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>66.25628701154714</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2375,13 +2375,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>108.9065924712584</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>214.0647808588585</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>160.1763464053464</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>282.8547581679341</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2959,16 +2959,16 @@
         <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308922</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002303</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
         <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3010,7 +3010,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3086,7 +3086,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3247,7 +3247,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,10 +3898,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
@@ -3910,7 +3910,7 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,7 +4135,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D46" t="n">
         <v>124.3308255261727</v>
@@ -4147,13 +4147,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H46" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.7704558796229</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="C2" t="n">
-        <v>921.7704558796229</v>
+        <v>758.7856865549927</v>
       </c>
       <c r="D2" t="n">
-        <v>563.5047572728724</v>
+        <v>400.5199879482422</v>
       </c>
       <c r="E2" t="n">
-        <v>177.7165046746282</v>
+        <v>400.5199879482422</v>
       </c>
       <c r="F2" t="n">
-        <v>66.51211643218336</v>
+        <v>400.5199879482422</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218336</v>
+        <v>400.5199879482422</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218336</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939505</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296683</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052365</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609168</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136263</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520485</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794321</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450751</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180636</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919556</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943745</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.543854481107</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.09082519998</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387288</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686088</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064765</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218336</v>
+        <v>827.0643955080142</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>920.7416649986314</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>1159.005863978979</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158128</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.98034951396</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410637</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.82830229719</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199863</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266129</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501175</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>85.57758048741302</v>
+        <v>629.3649355676414</v>
       </c>
       <c r="C4" t="n">
-        <v>85.57758048741302</v>
+        <v>629.3649355676414</v>
       </c>
       <c r="D4" t="n">
-        <v>85.57758048741302</v>
+        <v>479.2482961553056</v>
       </c>
       <c r="E4" t="n">
-        <v>85.57758048741302</v>
+        <v>331.3352025729125</v>
       </c>
       <c r="F4" t="n">
-        <v>85.57758048741302</v>
+        <v>184.4452550750021</v>
       </c>
       <c r="G4" t="n">
-        <v>85.57758048741302</v>
+        <v>184.4452550750021</v>
       </c>
       <c r="H4" t="n">
-        <v>85.57758048741302</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962276</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596502</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S4" t="n">
-        <v>729.2011216450105</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="T4" t="n">
-        <v>507.4345062145366</v>
+        <v>629.3649355676414</v>
       </c>
       <c r="U4" t="n">
-        <v>218.3316393401801</v>
+        <v>629.3649355676414</v>
       </c>
       <c r="V4" t="n">
-        <v>85.57758048741302</v>
+        <v>629.3649355676414</v>
       </c>
       <c r="W4" t="n">
-        <v>85.57758048741302</v>
+        <v>629.3649355676414</v>
       </c>
       <c r="X4" t="n">
-        <v>85.57758048741302</v>
+        <v>629.3649355676414</v>
       </c>
       <c r="Y4" t="n">
-        <v>85.57758048741302</v>
+        <v>629.3649355676414</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1257.755181644084</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C5" t="n">
-        <v>888.7926647036722</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D5" t="n">
-        <v>530.5269660969217</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E5" t="n">
-        <v>530.5269660969217</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5410613073142</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4583,34 +4583,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3091.791654558782</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2760.728767215212</v>
+        <v>2655.939195183548</v>
       </c>
       <c r="W5" t="n">
-        <v>2407.960111945097</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="X5" t="n">
-        <v>2034.494353684017</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="Y5" t="n">
-        <v>1644.355021708206</v>
+        <v>2303.170539913434</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811077</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999807</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387296</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.918960533274</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601591</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218338</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4674,22 +4674,22 @@
         <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>214.4252100145765</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="C7" t="n">
-        <v>214.4252100145765</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="D7" t="n">
-        <v>214.4252100145765</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218339</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218339</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962279</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181842</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>729.2011216450105</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T7" t="n">
-        <v>729.2011216450105</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U7" t="n">
-        <v>729.2011216450105</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="V7" t="n">
-        <v>729.2011216450105</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="W7" t="n">
-        <v>442.4147609125939</v>
+        <v>612.3211433678175</v>
       </c>
       <c r="X7" t="n">
-        <v>214.4252100145765</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="Y7" t="n">
-        <v>214.4252100145765</v>
+        <v>384.3315924698002</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1977.407367302545</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912088</v>
@@ -4826,28 +4826,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883007</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539436</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="W8" t="n">
-        <v>2741.012457539436</v>
+        <v>2435.796531379707</v>
       </c>
       <c r="X8" t="n">
-        <v>2367.546699278356</v>
+        <v>2062.330773118627</v>
       </c>
       <c r="Y8" t="n">
-        <v>1977.407367302545</v>
+        <v>1706.955462799692</v>
       </c>
     </row>
     <row r="9">
@@ -4857,10 +4857,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
         <v>618.1564155387305</v>
@@ -4869,46 +4869,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
@@ -4936,34 +4936,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>549.3683227675135</v>
+        <v>460.171619808316</v>
       </c>
       <c r="C10" t="n">
-        <v>380.4321398396066</v>
+        <v>460.171619808316</v>
       </c>
       <c r="D10" t="n">
-        <v>380.4321398396066</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="E10" t="n">
-        <v>380.4321398396066</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
@@ -4984,28 +4984,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>831.0565485757129</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T10" t="n">
-        <v>831.0565485757129</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="U10" t="n">
-        <v>831.0565485757129</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="V10" t="n">
-        <v>731.0167875977533</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="W10" t="n">
-        <v>731.0167875977533</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="X10" t="n">
-        <v>731.0167875977533</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="Y10" t="n">
-        <v>731.0167875977533</v>
+        <v>508.4085425014811</v>
       </c>
     </row>
     <row r="11">
@@ -5021,13 +5021,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,22 +5036,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5127,19 +5127,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>961.4446166151475</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>792.5084336872407</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>642.3917942749049</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>494.4787006925118</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
         <v>484.8112968429803</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>2086.797572684546</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588917</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X13" t="n">
-        <v>1363.885660588917</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y13" t="n">
-        <v>1143.093081445387</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5267,28 +5267,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5364,7 +5364,7 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N15" t="n">
         <v>1859.536823237711</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.777212765616</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C16" t="n">
-        <v>782.8410298377091</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2345.568987476151</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2125.967522499092</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U16" t="n">
-        <v>1836.89229584329</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>1582.207807637403</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W16" t="n">
-        <v>1582.207807637403</v>
+        <v>1418.449741049605</v>
       </c>
       <c r="X16" t="n">
-        <v>1354.218256739386</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.425677595856</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
     <row r="17">
@@ -5492,61 +5492,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239597</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>924.8344286397185</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1522.21291626627</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1522.21291626627</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>800.6374272687975</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1975.169680383432</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1720.485192177545</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1431.068022140585</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1203.078471242567</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>982.2858920990373</v>
       </c>
     </row>
     <row r="20">
@@ -5741,31 +5741,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5832,22 +5832,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>119.2902967703784</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969303</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2336.956424518383</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>2312.991837396757</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="23">
@@ -5981,19 +5981,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6002,31 +6002,31 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
         <v>3094.515198591809</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="26">
@@ -6206,34 +6206,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,16 +6476,16 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
         <v>4606.285157492578</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319335</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656828</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150035</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942666</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580125</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
         <v>268.5553036345476</v>
@@ -6616,31 +6616,31 @@
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N31" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
         <v>2596.781734931274</v>
@@ -6652,19 +6652,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
         <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6777,19 +6777,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319313</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656807</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150013</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942644</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580104</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634547</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384015</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
@@ -6877,31 +6877,31 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547833</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,31 +6932,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7096,10 +7096,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,16 +7117,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7135,7 +7135,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,52 +7160,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,25 +7245,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7327,13 +7327,13 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
         <v>898.2659412311323</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345479</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7594,7 +7594,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7643,22 +7643,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580107</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345477</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382517</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
   </sheetData>
@@ -22547,25 +22547,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>296.7837013816911</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>5.516901359348253</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22708,22 +22708,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>28.00120765793026</v>
       </c>
       <c r="I4" t="n">
-        <v>77.47761099516076</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22759,10 +22759,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>135.850318211895</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>41.86788054217584</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,13 +23662,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>80.6461308585763</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>54.01843965608043</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,7 +23899,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>283.9159882634389</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>138.4949402405069</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>151.1491633157411</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>37.52737017531081</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>72.11969353038563</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>57.22910392194191</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>3.329716221310093</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>-7.389644451905042e-13</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99467.00901045147</v>
+        <v>99467.00901045142</v>
       </c>
       <c r="C2" t="n">
         <v>123156.2654796425</v>
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>1.469155386075727e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972772</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363196</v>
+        <v>19427.7179936318</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355118</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3456.426522020702</v>
+        <v>3456.426522020447</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
@@ -26430,31 +26430,31 @@
         <v>16046.58397189197</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189195</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="H4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="I4" t="n">
-        <v>16046.58397189195</v>
+        <v>16046.583971892</v>
       </c>
       <c r="J4" t="n">
-        <v>16046.583971892</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
-        <v>24037.4432349854</v>
+        <v>24037.44323498545</v>
       </c>
       <c r="L4" t="n">
+        <v>24037.44323498546</v>
+      </c>
+      <c r="M4" t="n">
+        <v>24037.44323498547</v>
+      </c>
+      <c r="N4" t="n">
+        <v>24037.44323498549</v>
+      </c>
+      <c r="O4" t="n">
         <v>24037.44323498544</v>
-      </c>
-      <c r="M4" t="n">
-        <v>24037.44323498543</v>
-      </c>
-      <c r="N4" t="n">
-        <v>24037.44323498541</v>
-      </c>
-      <c r="O4" t="n">
-        <v>24037.44323498543</v>
       </c>
       <c r="P4" t="n">
         <v>24037.44323498543</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613932</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1340668.103800555</v>
+        <v>-1341062.924741708</v>
       </c>
       <c r="C6" t="n">
-        <v>-78374.41918580352</v>
+        <v>-78374.41918580339</v>
       </c>
       <c r="D6" t="n">
         <v>-78374.41918580337</v>
       </c>
       <c r="E6" t="n">
-        <v>-321509.5856496533</v>
+        <v>-321544.3235750891</v>
       </c>
       <c r="F6" t="n">
-        <v>3902.87615770183</v>
+        <v>3868.138232266152</v>
       </c>
       <c r="G6" t="n">
-        <v>3902.87615770183</v>
+        <v>3868.138232266108</v>
       </c>
       <c r="H6" t="n">
-        <v>3902.87615770183</v>
+        <v>3868.138232266166</v>
       </c>
       <c r="I6" t="n">
-        <v>3902.876157701845</v>
+        <v>3868.138232266122</v>
       </c>
       <c r="J6" t="n">
-        <v>-213628.3262395754</v>
+        <v>-213663.0641650114</v>
       </c>
       <c r="K6" t="n">
-        <v>-23473.01160289039</v>
+        <v>-23473.01160289024</v>
       </c>
       <c r="L6" t="n">
-        <v>-4045.293609258355</v>
+        <v>-4045.29360925837</v>
       </c>
       <c r="M6" t="n">
-        <v>-89100.32154477012</v>
+        <v>-89100.32154477024</v>
       </c>
       <c r="N6" t="n">
+        <v>-4045.293609258384</v>
+      </c>
+      <c r="O6" t="n">
         <v>-4045.293609258311</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-4045.29360925834</v>
       </c>
       <c r="P6" t="n">
         <v>-23473.01160289012</v>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>24.28464749203974</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203974</v>
+      </c>
+      <c r="M2" t="n">
         <v>24.28464749203973</v>
       </c>
-      <c r="L2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203967</v>
-      </c>
       <c r="N2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="O2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203969</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203969</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="3">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402292</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26802,19 +26802,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26823,7 +26823,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402292</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022917</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402292</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27464,7 +27464,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1.648459146963432e-12</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>120.7111250595729</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>120.7111250595886</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>19.5191465790185</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>228.8832021954674</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,22 +27777,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>2.60450121149853</v>
+        <v>69.97494718077459</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>364.0824706577061</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>34.41638144030736</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>132.0774267157039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,13 +28023,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28068,7 +28068,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>153.098279955648</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -29101,7 +29101,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="32">
@@ -29806,7 +29806,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31847,13 +31847,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O12" t="n">
-        <v>333.9544784328825</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31862,7 +31862,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32084,10 +32084,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N15" t="n">
-        <v>322.6999460717714</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>189.0011860883002</v>
       </c>
       <c r="O18" t="n">
-        <v>520.337216085408</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,31 +32777,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>514.6953762540926</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32810,16 +32810,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>285.8867128925984</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,31 +33251,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>514.6953762540926</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33284,16 +33284,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,31 +33488,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.267838362266</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,31 +33962,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34129,34 +34129,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,31 +34199,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>597.1709559744729</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,31 +34436,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014211</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014211</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35495,13 +35495,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O12" t="n">
-        <v>191.358233988438</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35510,7 +35510,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35732,10 +35732,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N15" t="n">
-        <v>191.358233988438</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35966,22 +35966,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>57.65947400496688</v>
       </c>
       <c r="O18" t="n">
-        <v>377.7409716409636</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,25 +36431,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>372.0991318096482</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36458,7 +36458,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>151.9123054782682</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,22 +36908,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>372.0991318096482</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36932,7 +36932,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36999,10 +36999,10 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,22 +37145,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37239,7 +37239,7 @@
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402477</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,16 +37625,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396405</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,25 +37853,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>455.0369220524547</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,16 +38099,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
